--- a/SubRES_TMPL/SubRES_TRA_DK1.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_DK1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1211578-E4A7-4F09-BC8A-69E8D6F58BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3016CBC7-E7C3-4017-83F8-C2258DE3D218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="9" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -3864,7 +3864,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="310">
   <si>
     <t>Methanol=LHC in technology cathalogue</t>
   </si>
@@ -4798,6 +4798,9 @@
   </si>
   <si>
     <t>KRE_ship_DKW</t>
+  </si>
+  <si>
+    <t>H2_COMP</t>
   </si>
 </sst>
 </file>
@@ -5162,7 +5165,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -5383,6 +5386,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
@@ -8100,7 +8104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D195BF64-9F46-4536-8385-3D462E705609}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="71" workbookViewId="0">
       <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
@@ -13108,7 +13112,7 @@
   </sheetPr>
   <dimension ref="C1:U125"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScale="86" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="86" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -17469,8 +17473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5FAA1D-3717-457D-9B77-4AA5B285502A}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17697,8 +17701,8 @@
       <c r="D11" t="s">
         <v>248</v>
       </c>
-      <c r="F11" t="s">
-        <v>156</v>
+      <c r="F11" s="100" t="s">
+        <v>309</v>
       </c>
       <c r="G11" t="s">
         <v>299</v>
@@ -17856,8 +17860,8 @@
         <v>249</v>
       </c>
       <c r="E14" s="80"/>
-      <c r="F14" s="80" t="s">
-        <v>156</v>
+      <c r="F14" s="100" t="s">
+        <v>309</v>
       </c>
       <c r="G14" t="s">
         <v>299</v>

--- a/SubRES_TMPL/SubRES_TRA_DK1.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_DK1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D020C62-B5B1-4320-838F-C6A02297CAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C879C3EA-3D5B-4DF8-9EA9-9A94F39312BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -7288,8 +7288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D195BF64-9F46-4536-8385-3D462E705609}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="62" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7541,14 +7541,16 @@
         <v>1</v>
       </c>
       <c r="Q11" s="80">
-        <f>'JET FUEL'!J18</f>
-        <v>18.136342649856541</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R11" s="80">
         <f>'JET FUEL'!J19</f>
         <v>9.8872405206880537E-2</v>
       </c>
-      <c r="S11" s="80"/>
+      <c r="S11" s="80">
+        <f>'JET FUEL'!J18</f>
+        <v>18.136342649856541</v>
+      </c>
       <c r="T11" s="82"/>
       <c r="Y11" s="67" t="s">
         <v>225</v>
@@ -7619,12 +7621,15 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <f>Q11</f>
-        <v>18.136342649856541</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R13">
         <f>R11</f>
         <v>9.8872405206880537E-2</v>
+      </c>
+      <c r="S13">
+        <f>S11</f>
+        <v>18.136342649856541</v>
       </c>
       <c r="T13" s="76"/>
       <c r="Y13" s="70" t="s">
@@ -7694,12 +7699,15 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <f>Q13</f>
-        <v>18.136342649856541</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R15">
         <f>R11</f>
         <v>9.8872405206880537E-2</v>
+      </c>
+      <c r="S15">
+        <f>S13</f>
+        <v>18.136342649856541</v>
       </c>
       <c r="Y15" t="s">
         <v>240</v>
@@ -16667,7 +16675,7 @@
   <dimension ref="C3:AF25"/>
   <sheetViews>
     <sheetView zoomScale="58" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="Q14" sqref="Q14:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17110,14 +17118,16 @@
         <v>1</v>
       </c>
       <c r="Q14" s="80">
-        <f>'H2'!$M$20</f>
-        <v>124.07255768910225</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R14" s="80">
         <f>'H2'!M21</f>
         <v>0.62036278844551129</v>
       </c>
-      <c r="S14" s="80"/>
+      <c r="S14" s="80">
+        <f>'H2'!$M$20</f>
+        <v>124.07255768910225</v>
+      </c>
       <c r="T14" s="82"/>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.3">
@@ -17150,12 +17160,15 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <f>'H2'!$M$20</f>
-        <v>124.07255768910225</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R16">
         <f>'H2'!M21</f>
         <v>0.62036278844551129</v>
+      </c>
+      <c r="S16">
+        <f>'H2'!$M$20</f>
+        <v>124.07255768910225</v>
       </c>
       <c r="T16" s="76"/>
     </row>
@@ -17189,12 +17202,15 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <f>'H2'!$N$20</f>
-        <v>88.623255492215904</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R18">
         <f>'H2'!N21</f>
         <v>0.44311627746107951</v>
+      </c>
+      <c r="S18">
+        <f>'H2'!$N$20</f>
+        <v>88.623255492215904</v>
       </c>
       <c r="T18" s="76"/>
     </row>
@@ -17245,7 +17261,7 @@
   </sheetPr>
   <dimension ref="B2:X122"/>
   <sheetViews>
-    <sheetView topLeftCell="G18" zoomScale="65" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M20" zoomScale="74" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -20784,7 +20800,7 @@
   <dimension ref="C4:AF24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="Q14" sqref="Q14:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21227,14 +21243,16 @@
         <v>1</v>
       </c>
       <c r="Q14" s="80">
-        <f>'NH3'!M11</f>
-        <v>105.70687448860785</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R14" s="80">
         <f>'NH3'!M12</f>
         <v>0.51123688365384623</v>
       </c>
-      <c r="S14" s="80"/>
+      <c r="S14" s="80">
+        <f>'NH3'!M11</f>
+        <v>105.70687448860785</v>
+      </c>
       <c r="T14" s="82"/>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.3">
@@ -21266,12 +21284,15 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <f>Q14</f>
-        <v>105.70687448860785</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R16">
         <f>R14</f>
         <v>0.51123688365384623</v>
+      </c>
+      <c r="S16">
+        <f>S14</f>
+        <v>105.70687448860785</v>
       </c>
       <c r="T16" s="76"/>
     </row>
@@ -21305,12 +21326,15 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <f>Q16</f>
-        <v>105.70687448860785</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R18">
         <f>R16</f>
         <v>0.51123688365384623</v>
+      </c>
+      <c r="S18">
+        <f>S16</f>
+        <v>105.70687448860785</v>
       </c>
       <c r="T18" s="76"/>
     </row>
@@ -23697,7 +23721,7 @@
   <dimension ref="C4:AF20"/>
   <sheetViews>
     <sheetView zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="Q11" sqref="Q11:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24011,14 +24035,16 @@
         <v>1</v>
       </c>
       <c r="Q11" s="80">
-        <f>METHANOL!I18</f>
-        <v>39.212826970469628</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R11" s="80">
         <f>METHANOL!I19</f>
         <v>0.21377333856019948</v>
       </c>
-      <c r="S11" s="80"/>
+      <c r="S11" s="80">
+        <f>METHANOL!I18</f>
+        <v>39.212826970469628</v>
+      </c>
       <c r="T11" s="80"/>
     </row>
     <row r="12" spans="3:32" x14ac:dyDescent="0.3">
@@ -24033,7 +24059,6 @@
         <v>2.6815610013245861E-4</v>
       </c>
       <c r="O12" s="77"/>
-      <c r="S12" s="76"/>
       <c r="T12" s="76"/>
     </row>
     <row r="13" spans="3:32" x14ac:dyDescent="0.3">
@@ -24051,14 +24076,16 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <f>Q11</f>
-        <v>39.212826970469628</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R13">
         <f>R11</f>
         <v>0.21377333856019948</v>
       </c>
-      <c r="S13" s="76"/>
+      <c r="S13">
+        <f>S11</f>
+        <v>39.212826970469628</v>
+      </c>
       <c r="T13" s="76"/>
     </row>
     <row r="14" spans="3:32" x14ac:dyDescent="0.3">
@@ -24075,7 +24102,6 @@
       </c>
       <c r="O14" s="77"/>
       <c r="P14" s="79"/>
-      <c r="S14" s="76"/>
       <c r="T14" s="76"/>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.3">
@@ -24092,14 +24118,16 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <f>Q13</f>
-        <v>39.212826970469628</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R15">
         <f>R11</f>
         <v>0.21377333856019948</v>
       </c>
-      <c r="S15" s="76"/>
+      <c r="S15">
+        <f>S13</f>
+        <v>39.212826970469628</v>
+      </c>
       <c r="T15" s="76"/>
     </row>
     <row r="16" spans="3:32" x14ac:dyDescent="0.3">

--- a/SubRES_TMPL/SubRES_TRA_DK1.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_DK1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C879C3EA-3D5B-4DF8-9EA9-9A94F39312BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3338637F-7F96-424A-B991-7933E804782C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -16674,8 +16674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5FAA1D-3717-457D-9B77-4AA5B285502A}">
   <dimension ref="C3:AF25"/>
   <sheetViews>
-    <sheetView zoomScale="58" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14:Q19"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17261,7 +17261,7 @@
   </sheetPr>
   <dimension ref="B2:X122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M20" zoomScale="74" workbookViewId="0">
+    <sheetView topLeftCell="M20" zoomScale="74" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>

--- a/SubRES_TMPL/SubRES_TRA_DK1.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_DK1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3338637F-7F96-424A-B991-7933E804782C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E11234-BECE-4864-888A-BBAB90F5B5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -5202,7 +5202,7 @@
   </sheetPr>
   <dimension ref="D2:R103"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="52" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -16674,7 +16674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5FAA1D-3717-457D-9B77-4AA5B285502A}">
   <dimension ref="C3:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+    <sheetView zoomScale="58" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/SubRES_TMPL/SubRES_TRA_DK1.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_DK1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E11234-BECE-4864-888A-BBAB90F5B5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0AD322-42ED-4A9F-A034-8564767850B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -5202,7 +5202,7 @@
   </sheetPr>
   <dimension ref="D2:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="52" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="52" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -7289,7 +7289,7 @@
   <dimension ref="C3:AF16"/>
   <sheetViews>
     <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24159,8 +24159,8 @@
   </sheetPr>
   <dimension ref="B2:T124"/>
   <sheetViews>
-    <sheetView zoomScale="67" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24:W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SubRES_TMPL/SubRES_TRA_DK1.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_DK1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0AD322-42ED-4A9F-A034-8564767850B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C4E8AA-94E9-4DDB-BEBD-8F512C93425E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="13" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -10941,7 +10941,7 @@
   </sheetPr>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView zoomScale="54" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -24159,7 +24159,7 @@
   </sheetPr>
   <dimension ref="B2:T124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+    <sheetView zoomScale="67" workbookViewId="0">
       <selection activeCell="U24" sqref="U24:W34"/>
     </sheetView>
   </sheetViews>

--- a/SubRES_TMPL/SubRES_TRA_DK1.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_DK1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C4E8AA-94E9-4DDB-BEBD-8F512C93425E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C5C6A2-FF58-4B25-AB71-5D303E4C92BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="13" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -10251,7 +10251,7 @@
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -10941,7 +10941,7 @@
   </sheetPr>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+    <sheetView zoomScale="87" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -11832,7 +11832,7 @@
   <dimension ref="C3:AF26"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="78" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="T11" sqref="T11:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12091,9 +12091,7 @@
         <f>'Transmission lines'!G8*'Transmission lines'!O23</f>
         <v>5.2402948752520135</v>
       </c>
-      <c r="T11" s="76">
-        <v>1.5</v>
-      </c>
+      <c r="T11" s="76"/>
       <c r="Y11" s="67" t="s">
         <v>225</v>
       </c>
@@ -12131,9 +12129,7 @@
         <f>'Transmission lines'!Q23</f>
         <v>5.4943731921535504</v>
       </c>
-      <c r="T12" s="76">
-        <v>1.5</v>
-      </c>
+      <c r="T12" s="76"/>
       <c r="Y12" s="69" t="s">
         <v>226</v>
       </c>
@@ -12183,9 +12179,6 @@
       <c r="R13">
         <f>'Transmission lines'!R23</f>
         <v>5.7607706232760041</v>
-      </c>
-      <c r="T13">
-        <v>1.5</v>
       </c>
       <c r="Y13" s="70" t="s">
         <v>232</v>
@@ -12297,7 +12290,7 @@
   <dimension ref="C1:V125"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16675,7 +16668,7 @@
   <dimension ref="C3:AF25"/>
   <sheetViews>
     <sheetView zoomScale="58" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17023,9 +17016,7 @@
         <f>'H2'!$F$41</f>
         <v>5.3168635900000004E-2</v>
       </c>
-      <c r="T11" s="76">
-        <v>1</v>
-      </c>
+      <c r="T11" s="76"/>
     </row>
     <row r="12" spans="3:32" x14ac:dyDescent="0.3">
       <c r="I12" s="72">
@@ -17052,9 +17043,7 @@
         <f>'H2'!$F$41</f>
         <v>5.3168635900000004E-2</v>
       </c>
-      <c r="T12" s="76">
-        <v>1</v>
-      </c>
+      <c r="T12" s="76"/>
     </row>
     <row r="13" spans="3:32" x14ac:dyDescent="0.3">
       <c r="I13">
@@ -17080,9 +17069,7 @@
         <f>'H2'!G41</f>
         <v>3.9876476925000001E-2</v>
       </c>
-      <c r="T13" s="76">
-        <v>1</v>
-      </c>
+      <c r="T13" s="76"/>
     </row>
     <row r="14" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
@@ -17261,8 +17248,8 @@
   </sheetPr>
   <dimension ref="B2:X122"/>
   <sheetViews>
-    <sheetView topLeftCell="M20" zoomScale="74" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="F1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20800,7 +20787,7 @@
   <dimension ref="C4:AF24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14:Q19"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21148,9 +21135,7 @@
         <f>'NH3'!$D$36</f>
         <v>2.126745436E-2</v>
       </c>
-      <c r="T11" s="76">
-        <v>1</v>
-      </c>
+      <c r="T11" s="76"/>
     </row>
     <row r="12" spans="3:32" x14ac:dyDescent="0.3">
       <c r="I12" s="72">
@@ -21177,9 +21162,7 @@
         <f>'NH3'!$D$36</f>
         <v>2.126745436E-2</v>
       </c>
-      <c r="T12" s="76">
-        <v>1</v>
-      </c>
+      <c r="T12" s="76"/>
     </row>
     <row r="13" spans="3:32" x14ac:dyDescent="0.3">
       <c r="I13">
@@ -21205,9 +21188,7 @@
         <f>'NH3'!$D$36</f>
         <v>2.126745436E-2</v>
       </c>
-      <c r="T13" s="76">
-        <v>1</v>
-      </c>
+      <c r="T13" s="76"/>
     </row>
     <row r="14" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
@@ -21383,7 +21364,7 @@
   <dimension ref="B2:U125"/>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23720,7 +23701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1345D734-7961-4ED2-821B-49A1BA0CA502}">
   <dimension ref="C4:AF20"/>
   <sheetViews>
-    <sheetView zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11:Q16"/>
     </sheetView>
   </sheetViews>
